--- a/teacher.xlsx
+++ b/teacher.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\backend\Classroom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990CEE7E-8A6D-47BE-BC74-E5F7288EB962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51413B2C-8217-4D03-A989-2123A4756C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>username</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>dsa</t>
+  </si>
+  <si>
+    <t>CS-A</t>
+  </si>
+  <si>
+    <t>CS-B</t>
   </si>
 </sst>
 </file>
@@ -390,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,6 +489,40 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1234</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1234</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/teacher.xlsx
+++ b/teacher.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\backend\Classroom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51413B2C-8217-4D03-A989-2123A4756C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD60F197-3373-41DB-9807-D1880037CB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>username</t>
   </si>
@@ -60,9 +60,6 @@
     <t>math</t>
   </si>
   <si>
-    <t>cs</t>
-  </si>
-  <si>
     <t>teacher3</t>
   </si>
   <si>
@@ -75,10 +72,7 @@
     <t>dsa</t>
   </si>
   <si>
-    <t>CS-A</t>
-  </si>
-  <si>
-    <t>CS-B</t>
+    <t>adld</t>
   </si>
 </sst>
 </file>
@@ -396,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,12 +446,12 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>1234</v>
@@ -469,12 +463,12 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>1234</v>
@@ -486,7 +480,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -500,26 +494,9 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>1234</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
         <v>10</v>
       </c>
     </row>
